--- a/biology/Médecine/Enrico_Acerbi/Enrico_Acerbi.xlsx
+++ b/biology/Médecine/Enrico_Acerbi/Enrico_Acerbi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enrico Acerbi — également appelé Heinrich Acerbi — (né le 25 octobre 1785 à Castano Primo, dans la province de Milan, en Lombardie et mort le 5 décembre 1827 (à 42 ans) à Tremezzina, dans la province de Côme, en Lombardie) est un médecin italien du XIXe siècle.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Enrico Acerbi naît le 25 octobre 1785 à Castano Primo[1].
-Après avoir terminé ses études de médecine, il fait des voyages pour parfaire ses connaissances médicales-anatomiques et cliniques[1]. Plus tard, il est Professeur à la clinique de l'université de Milan.
-Il se fait un nom en tant que médecin ; Constantin von Wurzbach jugeait : « Sa conférence particulière, pleine d'esprit, pimentée d'idées vives, et l'art de son diagnostic surprenant remplissaient les salles de l'hôpital [...] d'étudiants »[1].
-Enrico Acerbi meurt à Tremezzina le 5 décembre 1827 à l'âge de 42 ans[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Enrico Acerbi naît le 25 octobre 1785 à Castano Primo.
+Après avoir terminé ses études de médecine, il fait des voyages pour parfaire ses connaissances médicales-anatomiques et cliniques. Plus tard, il est Professeur à la clinique de l'université de Milan.
+Il se fait un nom en tant que médecin ; Constantin von Wurzbach jugeait : « Sa conférence particulière, pleine d'esprit, pimentée d'idées vives, et l'art de son diagnostic surprenant remplissaient les salles de l'hôpital [...] d'étudiants ».
+Enrico Acerbi meurt à Tremezzina le 5 décembre 1827 à l'âge de 42 ans.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dottrina teorico-pratica del morbo petecchiale e de' contagj in genere (Milan 1822)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dottrina teorico-pratica del morbo petecchiale e de' contagj in genere (Milan 1822).
 Annotazioni di medicina pratica</t>
         </is>
       </c>
